--- a/doc/Aufnahmebogen_Krater.xlsx
+++ b/doc/Aufnahmebogen_Krater.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSeimn\Documents\edu\Envimaster-Geomorph\repo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7586E5-EF69-4649-A31C-A88554B4E3B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB2D3F-5158-40E2-A7C1-603DA7024BBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7140" windowWidth="29040" windowHeight="15840" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Pürckhauer" sheetId="1" r:id="rId1"/>
@@ -379,6 +379,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -405,12 +411,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26986A18-992C-4C10-B32F-AEB5950300A8}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,23 +755,23 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="6"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="27"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -782,21 +782,21 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="8"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -807,21 +807,21 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="8"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="30"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -832,21 +832,21 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="8"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="30"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -857,21 +857,21 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="8"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="30"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -880,21 +880,21 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="8"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="30"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -905,21 +905,21 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="11"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="33"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -946,18 +946,18 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="25"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="27"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -968,16 +968,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="8"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="30"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
@@ -1005,16 +1005,16 @@
       <c r="J14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="30"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
@@ -1022,21 +1022,21 @@
       <c r="C15" s="2"/>
       <c r="D15" s="16"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="32">
+      <c r="H15" s="23">
         <v>10</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="2"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="30"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
@@ -1044,21 +1044,21 @@
       <c r="C16" s="2"/>
       <c r="D16" s="16"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="32">
+      <c r="H16" s="23">
         <v>20</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="2"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="30"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
@@ -1066,21 +1066,21 @@
       <c r="C17" s="2"/>
       <c r="D17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="32">
+      <c r="H17" s="23">
         <v>30</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="2"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="30"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
@@ -1088,21 +1088,21 @@
       <c r="C18" s="2"/>
       <c r="D18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="32">
+      <c r="H18" s="23">
         <v>40</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="2"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="30"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
@@ -1110,21 +1110,21 @@
       <c r="C19" s="2"/>
       <c r="D19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="32">
+      <c r="H19" s="23">
         <v>50</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="2"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="30"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
@@ -1132,21 +1132,21 @@
       <c r="C20" s="2"/>
       <c r="D20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="32">
+      <c r="H20" s="23">
         <v>60</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="2"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="30"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
@@ -1154,21 +1154,21 @@
       <c r="C21" s="2"/>
       <c r="D21" s="16"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="32">
+      <c r="H21" s="23">
         <v>70</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="2"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="30"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
@@ -1176,21 +1176,21 @@
       <c r="C22" s="2"/>
       <c r="D22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="32">
+      <c r="H22" s="23">
         <v>80</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="2"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="30"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
@@ -1198,21 +1198,21 @@
       <c r="C23" s="2"/>
       <c r="D23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="32">
+      <c r="H23" s="23">
         <v>90</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="2"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="30"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
@@ -1220,21 +1220,21 @@
       <c r="C24" s="2"/>
       <c r="D24" s="16"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="32">
+      <c r="H24" s="23">
         <v>100</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="2"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="30"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -1242,21 +1242,21 @@
       <c r="C25" s="2"/>
       <c r="D25" s="16"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="32">
+      <c r="H25" s="23">
         <v>110</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="2"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="30"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
@@ -1264,21 +1264,21 @@
       <c r="C26" s="2"/>
       <c r="D26" s="16"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="32">
+      <c r="H26" s="23">
         <v>120</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="2"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="30"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
@@ -1286,21 +1286,21 @@
       <c r="C27" s="2"/>
       <c r="D27" s="16"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="32">
+      <c r="H27" s="23">
         <v>130</v>
       </c>
       <c r="I27" s="16"/>
       <c r="J27" s="2"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="30"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
@@ -1308,21 +1308,21 @@
       <c r="C28" s="2"/>
       <c r="D28" s="16"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="32">
+      <c r="H28" s="23">
         <v>140</v>
       </c>
       <c r="I28" s="16"/>
       <c r="J28" s="2"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="30"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
@@ -1330,21 +1330,21 @@
       <c r="C29" s="2"/>
       <c r="D29" s="16"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="32">
+      <c r="H29" s="23">
         <v>150</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="2"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="30"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
@@ -1352,21 +1352,21 @@
       <c r="C30" s="2"/>
       <c r="D30" s="16"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="32">
+      <c r="H30" s="23">
         <v>160</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="2"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="30"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
@@ -1374,21 +1374,21 @@
       <c r="C31" s="2"/>
       <c r="D31" s="16"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="32">
+      <c r="H31" s="23">
         <v>170</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="2"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="30"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
@@ -1396,21 +1396,21 @@
       <c r="C32" s="2"/>
       <c r="D32" s="16"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="32">
+      <c r="H32" s="23">
         <v>180</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="2"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="30"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
@@ -1418,21 +1418,21 @@
       <c r="C33" s="2"/>
       <c r="D33" s="16"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="32">
+      <c r="H33" s="23">
         <v>190</v>
       </c>
       <c r="I33" s="16"/>
       <c r="J33" s="2"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="30"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
@@ -1440,21 +1440,21 @@
       <c r="C34" s="3"/>
       <c r="D34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="33">
+      <c r="H34" s="24">
         <v>200</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="3"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="33"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G35" s="1"/>
@@ -1578,8 +1578,9 @@
       <c r="J54" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="L12:U34"/>
+    <mergeCell ref="G1:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Aufnahmebogen_Krater.xlsx
+++ b/doc/Aufnahmebogen_Krater.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSeimn\Documents\edu\Envimaster-Geomorph\repo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB2D3F-5158-40E2-A7C1-603DA7024BBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57949D6F-32F3-445D-8E8A-E6D269C1477A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
   </bookViews>
@@ -104,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -351,11 +351,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -412,6 +438,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -728,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26986A18-992C-4C10-B32F-AEB5950300A8}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:U7"/>
     </sheetView>
   </sheetViews>
@@ -737,11 +765,11 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -989,7 +1017,7 @@
       <c r="C14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="34" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="8"/>
@@ -1005,6 +1033,7 @@
       <c r="J14" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="K14" s="35"/>
       <c r="L14" s="28"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>

--- a/doc/Aufnahmebogen_Krater.xlsx
+++ b/doc/Aufnahmebogen_Krater.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSeimn\Documents\edu\Envimaster-Geomorph\repo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57949D6F-32F3-445D-8E8A-E6D269C1477A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B3BCD7-6C4E-4137-88CE-B82C18B4F01F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>Profil ID</t>
   </si>
@@ -104,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -377,11 +377,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -411,6 +422,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -438,8 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -754,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26986A18-992C-4C10-B32F-AEB5950300A8}">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:U7"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,11 +778,12 @@
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -783,23 +796,23 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -810,21 +823,21 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="32"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -835,21 +848,21 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="32"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -860,21 +873,21 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="32"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -885,21 +898,21 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="32"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -908,21 +921,21 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -933,21 +946,21 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="35"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -968,44 +981,55 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="L12" s="25" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="29"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="8"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="30"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="32"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
@@ -1017,533 +1041,718 @@
       <c r="C14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="s">
+      <c r="E14" s="26"/>
+      <c r="F14" s="21" t="s">
         <v>6</v>
       </c>
+      <c r="G14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="I14" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="K14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="32"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="2"/>
       <c r="D15" s="16"/>
+      <c r="F15" s="23">
+        <v>10</v>
+      </c>
       <c r="G15" s="16"/>
-      <c r="H15" s="23">
+      <c r="H15" s="2"/>
+      <c r="I15" s="23">
         <v>10</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="2"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="30"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="32"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="16"/>
+      <c r="F16" s="23">
+        <v>20</v>
+      </c>
       <c r="G16" s="16"/>
-      <c r="H16" s="23">
+      <c r="H16" s="2"/>
+      <c r="I16" s="23">
         <v>20</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="2"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="30"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="2"/>
       <c r="D17" s="16"/>
+      <c r="F17" s="23">
+        <v>30</v>
+      </c>
       <c r="G17" s="16"/>
-      <c r="H17" s="23">
+      <c r="H17" s="2"/>
+      <c r="I17" s="23">
         <v>30</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="2"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="30"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="2"/>
       <c r="D18" s="16"/>
+      <c r="F18" s="23">
+        <v>40</v>
+      </c>
       <c r="G18" s="16"/>
-      <c r="H18" s="23">
+      <c r="H18" s="2"/>
+      <c r="I18" s="23">
         <v>40</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="2"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="30"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="2"/>
       <c r="D19" s="16"/>
+      <c r="F19" s="23">
+        <v>50</v>
+      </c>
       <c r="G19" s="16"/>
-      <c r="H19" s="23">
+      <c r="H19" s="2"/>
+      <c r="I19" s="23">
         <v>50</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="2"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="30"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="2"/>
       <c r="D20" s="16"/>
+      <c r="F20" s="23">
+        <v>60</v>
+      </c>
       <c r="G20" s="16"/>
-      <c r="H20" s="23">
+      <c r="H20" s="2"/>
+      <c r="I20" s="23">
         <v>60</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="2"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="30"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="32"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="2"/>
       <c r="D21" s="16"/>
+      <c r="F21" s="23">
+        <v>70</v>
+      </c>
       <c r="G21" s="16"/>
-      <c r="H21" s="23">
+      <c r="H21" s="2"/>
+      <c r="I21" s="23">
         <v>70</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="2"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="30"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="32"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="2"/>
       <c r="D22" s="16"/>
+      <c r="F22" s="23">
+        <v>80</v>
+      </c>
       <c r="G22" s="16"/>
-      <c r="H22" s="23">
+      <c r="H22" s="2"/>
+      <c r="I22" s="23">
         <v>80</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="2"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="30"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="2"/>
       <c r="D23" s="16"/>
+      <c r="F23" s="23">
+        <v>90</v>
+      </c>
       <c r="G23" s="16"/>
-      <c r="H23" s="23">
+      <c r="H23" s="2"/>
+      <c r="I23" s="23">
         <v>90</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="2"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="30"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="2"/>
       <c r="D24" s="16"/>
+      <c r="F24" s="23">
+        <v>100</v>
+      </c>
       <c r="G24" s="16"/>
-      <c r="H24" s="23">
+      <c r="H24" s="2"/>
+      <c r="I24" s="23">
         <v>100</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="2"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="30"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="2"/>
       <c r="D25" s="16"/>
+      <c r="F25" s="23">
+        <v>110</v>
+      </c>
       <c r="G25" s="16"/>
-      <c r="H25" s="23">
+      <c r="H25" s="2"/>
+      <c r="I25" s="23">
         <v>110</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="2"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="30"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="2"/>
       <c r="D26" s="16"/>
+      <c r="F26" s="23">
+        <v>120</v>
+      </c>
       <c r="G26" s="16"/>
-      <c r="H26" s="23">
+      <c r="H26" s="2"/>
+      <c r="I26" s="23">
         <v>120</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="2"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="30"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="2"/>
       <c r="D27" s="16"/>
+      <c r="F27" s="23">
+        <v>130</v>
+      </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="23">
+      <c r="H27" s="2"/>
+      <c r="I27" s="23">
         <v>130</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="2"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="30"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="32"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="2"/>
       <c r="D28" s="16"/>
+      <c r="F28" s="23">
+        <v>140</v>
+      </c>
       <c r="G28" s="16"/>
-      <c r="H28" s="23">
+      <c r="H28" s="2"/>
+      <c r="I28" s="23">
         <v>140</v>
       </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="2"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="30"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="32"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="2"/>
       <c r="D29" s="16"/>
+      <c r="F29" s="23">
+        <v>150</v>
+      </c>
       <c r="G29" s="16"/>
-      <c r="H29" s="23">
+      <c r="H29" s="2"/>
+      <c r="I29" s="23">
         <v>150</v>
       </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="2"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="30"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="2"/>
       <c r="D30" s="16"/>
+      <c r="F30" s="23">
+        <v>160</v>
+      </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="23">
+      <c r="H30" s="2"/>
+      <c r="I30" s="23">
         <v>160</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="2"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="30"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="2"/>
       <c r="D31" s="16"/>
+      <c r="F31" s="23">
+        <v>170</v>
+      </c>
       <c r="G31" s="16"/>
-      <c r="H31" s="23">
+      <c r="H31" s="2"/>
+      <c r="I31" s="23">
         <v>170</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="2"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="30"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="2"/>
       <c r="D32" s="16"/>
+      <c r="F32" s="23">
+        <v>180</v>
+      </c>
       <c r="G32" s="16"/>
-      <c r="H32" s="23">
+      <c r="H32" s="2"/>
+      <c r="I32" s="23">
         <v>180</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="2"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="30"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="32"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="2"/>
       <c r="D33" s="16"/>
+      <c r="F33" s="23">
+        <v>190</v>
+      </c>
       <c r="G33" s="16"/>
-      <c r="H33" s="23">
+      <c r="H33" s="2"/>
+      <c r="I33" s="23">
         <v>190</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="2"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="30"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="32"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="24">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="F34" s="23">
         <v>200</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="3"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="33"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="23">
+        <v>200</v>
+      </c>
+      <c r="J34" s="16"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="35"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="F35" s="23">
+        <v>210</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="23">
+        <v>210</v>
+      </c>
+      <c r="J35" s="16"/>
+      <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="F36" s="23">
+        <v>220</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="23">
+        <v>220</v>
+      </c>
+      <c r="J36" s="16"/>
+      <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="F37" s="23">
+        <v>230</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="23">
+        <v>230</v>
+      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="F38" s="23">
+        <v>240</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="23">
+        <v>240</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="2"/>
+      <c r="F39" s="23">
+        <v>250</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="23">
+        <v>250</v>
+      </c>
+      <c r="J39" s="16"/>
+      <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="2"/>
+      <c r="F40" s="23">
+        <v>260</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="23">
+        <v>260</v>
+      </c>
+      <c r="J40" s="16"/>
+      <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="2"/>
+      <c r="F41" s="23">
+        <v>270</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="23">
+        <v>270</v>
+      </c>
+      <c r="J41" s="16"/>
+      <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="2"/>
+      <c r="F42" s="23">
+        <v>280</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="23">
+        <v>280</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="2"/>
+      <c r="F43" s="23">
+        <v>290</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="23">
+        <v>290</v>
+      </c>
+      <c r="J43" s="16"/>
+      <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="3"/>
+      <c r="F44" s="24">
+        <v>300</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="24">
+        <v>300</v>
+      </c>
+      <c r="J44" s="19"/>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G45" s="1"/>
@@ -1551,60 +1760,761 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="H47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="5"/>
+      <c r="M47" s="6"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="H48" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="J48" s="8"/>
+      <c r="K48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H49" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="23">
+        <v>10</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="23">
+        <v>10</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="2"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H50" s="23">
+        <v>10</v>
+      </c>
+      <c r="I50" s="16"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="23">
+        <v>10</v>
+      </c>
+      <c r="L50" s="16"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <v>20</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="23">
+        <v>20</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="2"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H51" s="23">
+        <v>20</v>
+      </c>
+      <c r="I51" s="16"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="23">
+        <v>20</v>
+      </c>
+      <c r="L51" s="16"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>30</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="23">
+        <v>30</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="2"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H52" s="23">
+        <v>30</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="23">
+        <v>30</v>
+      </c>
+      <c r="L52" s="16"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
+        <v>40</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="23">
+        <v>40</v>
+      </c>
+      <c r="E53" s="16"/>
+      <c r="F53" s="2"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H53" s="23">
+        <v>40</v>
+      </c>
+      <c r="I53" s="16"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="23">
+        <v>40</v>
+      </c>
+      <c r="L53" s="16"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
+        <v>50</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="23">
+        <v>50</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="2"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="H54" s="23">
+        <v>50</v>
+      </c>
+      <c r="I54" s="16"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="23">
+        <v>50</v>
+      </c>
+      <c r="L54" s="16"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <v>60</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="23">
+        <v>60</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="2"/>
+      <c r="H55" s="23">
+        <v>60</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="23">
+        <v>60</v>
+      </c>
+      <c r="L55" s="16"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
+        <v>70</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="23">
+        <v>70</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="2"/>
+      <c r="H56" s="23">
+        <v>70</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="23">
+        <v>70</v>
+      </c>
+      <c r="L56" s="16"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
+        <v>80</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="23">
+        <v>80</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="2"/>
+      <c r="H57" s="23">
+        <v>80</v>
+      </c>
+      <c r="I57" s="16"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="23">
+        <v>80</v>
+      </c>
+      <c r="L57" s="16"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="23">
+        <v>90</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="23">
+        <v>90</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="2"/>
+      <c r="H58" s="23">
+        <v>90</v>
+      </c>
+      <c r="I58" s="16"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="23">
+        <v>90</v>
+      </c>
+      <c r="L58" s="16"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
+        <v>100</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="23">
+        <v>100</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="2"/>
+      <c r="H59" s="23">
+        <v>100</v>
+      </c>
+      <c r="I59" s="16"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="23">
+        <v>100</v>
+      </c>
+      <c r="L59" s="16"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="23">
+        <v>110</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="23">
+        <v>110</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="2"/>
+      <c r="H60" s="23">
+        <v>110</v>
+      </c>
+      <c r="I60" s="16"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="23">
+        <v>110</v>
+      </c>
+      <c r="L60" s="16"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
+        <v>120</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="23">
+        <v>120</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="2"/>
+      <c r="H61" s="23">
+        <v>120</v>
+      </c>
+      <c r="I61" s="16"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="23">
+        <v>120</v>
+      </c>
+      <c r="L61" s="16"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="23">
+        <v>130</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="23">
+        <v>130</v>
+      </c>
+      <c r="E62" s="16"/>
+      <c r="F62" s="2"/>
+      <c r="H62" s="23">
+        <v>130</v>
+      </c>
+      <c r="I62" s="16"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="23">
+        <v>130</v>
+      </c>
+      <c r="L62" s="16"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
+        <v>140</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="23">
+        <v>140</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="2"/>
+      <c r="H63" s="23">
+        <v>140</v>
+      </c>
+      <c r="I63" s="16"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="23">
+        <v>140</v>
+      </c>
+      <c r="L63" s="16"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="23">
+        <v>150</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="23">
+        <v>150</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="2"/>
+      <c r="H64" s="23">
+        <v>150</v>
+      </c>
+      <c r="I64" s="16"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="23">
+        <v>150</v>
+      </c>
+      <c r="L64" s="16"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="23">
+        <v>160</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="23">
+        <v>160</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="2"/>
+      <c r="H65" s="23">
+        <v>160</v>
+      </c>
+      <c r="I65" s="16"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="23">
+        <v>160</v>
+      </c>
+      <c r="L65" s="16"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="23">
+        <v>170</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="23">
+        <v>170</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="2"/>
+      <c r="H66" s="23">
+        <v>170</v>
+      </c>
+      <c r="I66" s="16"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="23">
+        <v>170</v>
+      </c>
+      <c r="L66" s="16"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
+        <v>180</v>
+      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="23">
+        <v>180</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="2"/>
+      <c r="H67" s="23">
+        <v>180</v>
+      </c>
+      <c r="I67" s="16"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="23">
+        <v>180</v>
+      </c>
+      <c r="L67" s="16"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="23">
+        <v>190</v>
+      </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="23">
+        <v>190</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="2"/>
+      <c r="H68" s="23">
+        <v>190</v>
+      </c>
+      <c r="I68" s="16"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="23">
+        <v>190</v>
+      </c>
+      <c r="L68" s="16"/>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="23">
+        <v>200</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="23">
+        <v>200</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69" s="2"/>
+      <c r="H69" s="23">
+        <v>200</v>
+      </c>
+      <c r="I69" s="16"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="23">
+        <v>200</v>
+      </c>
+      <c r="L69" s="16"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="23">
+        <v>210</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="23">
+        <v>210</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70" s="2"/>
+      <c r="H70" s="23">
+        <v>210</v>
+      </c>
+      <c r="I70" s="16"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="23">
+        <v>210</v>
+      </c>
+      <c r="L70" s="16"/>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="23">
+        <v>220</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="23">
+        <v>220</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="2"/>
+      <c r="H71" s="23">
+        <v>220</v>
+      </c>
+      <c r="I71" s="16"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="23">
+        <v>220</v>
+      </c>
+      <c r="L71" s="16"/>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="23">
+        <v>230</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="23">
+        <v>230</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="2"/>
+      <c r="H72" s="23">
+        <v>230</v>
+      </c>
+      <c r="I72" s="16"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="23">
+        <v>230</v>
+      </c>
+      <c r="L72" s="16"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
+        <v>240</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="23">
+        <v>240</v>
+      </c>
+      <c r="E73" s="16"/>
+      <c r="F73" s="2"/>
+      <c r="H73" s="23">
+        <v>240</v>
+      </c>
+      <c r="I73" s="16"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="23">
+        <v>240</v>
+      </c>
+      <c r="L73" s="16"/>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="23">
+        <v>250</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="23">
+        <v>250</v>
+      </c>
+      <c r="E74" s="16"/>
+      <c r="F74" s="2"/>
+      <c r="H74" s="23">
+        <v>250</v>
+      </c>
+      <c r="I74" s="16"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="23">
+        <v>250</v>
+      </c>
+      <c r="L74" s="16"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
+        <v>260</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="23">
+        <v>260</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="2"/>
+      <c r="H75" s="23">
+        <v>260</v>
+      </c>
+      <c r="I75" s="16"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="23">
+        <v>260</v>
+      </c>
+      <c r="L75" s="16"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="23">
+        <v>270</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="23">
+        <v>270</v>
+      </c>
+      <c r="E76" s="16"/>
+      <c r="F76" s="2"/>
+      <c r="H76" s="23">
+        <v>270</v>
+      </c>
+      <c r="I76" s="16"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="23">
+        <v>270</v>
+      </c>
+      <c r="L76" s="16"/>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="23">
+        <v>280</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="23">
+        <v>280</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77" s="2"/>
+      <c r="H77" s="23">
+        <v>280</v>
+      </c>
+      <c r="I77" s="16"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="23">
+        <v>280</v>
+      </c>
+      <c r="L77" s="16"/>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="23">
+        <v>290</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="23">
+        <v>290</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78" s="2"/>
+      <c r="H78" s="23">
+        <v>290</v>
+      </c>
+      <c r="I78" s="16"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="23">
+        <v>290</v>
+      </c>
+      <c r="L78" s="16"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="24">
+        <v>300</v>
+      </c>
+      <c r="B79" s="19"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="24">
+        <v>300</v>
+      </c>
+      <c r="E79" s="19"/>
+      <c r="F79" s="3"/>
+      <c r="H79" s="24">
+        <v>300</v>
+      </c>
+      <c r="I79" s="19"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="24">
+        <v>300</v>
+      </c>
+      <c r="L79" s="19"/>
+      <c r="M79" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/Aufnahmebogen_Krater.xlsx
+++ b/doc/Aufnahmebogen_Krater.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSeimn\Documents\edu\Envimaster-Geomorph\repo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE953D55-4E6C-4070-B5BE-CC8BC79B4251}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19228D0A-A750-4059-A272-5035F33C6673}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -429,6 +429,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -456,31 +460,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -495,10 +487,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -510,9 +514,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,10 +831,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26986A18-992C-4C10-B32F-AEB5950300A8}">
-  <dimension ref="A1:V100"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AE100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,687 +859,698 @@
     <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="5"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="53"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="29"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="53"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="29"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="53"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="53"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="29"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="53"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="53"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="29"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="53"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="53"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="29"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="53"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="53"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="29"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="53"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="29"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="53"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="29"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="53"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="29"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="53"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="29"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="53"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="29"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="53"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="29"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="53"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="29"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="53"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="29"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="53"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="29"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="53"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="29"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="53"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="29"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="53"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="29"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="53"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="29"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="53"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="29"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="53"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="29"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="53"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="29"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="53"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="32"/>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="53"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U30" s="1"/>
+    </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>7</v>
@@ -1552,22 +1569,22 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
       <c r="T33" s="46"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -1577,20 +1594,20 @@
       <c r="D34" s="8"/>
       <c r="E34" s="22"/>
       <c r="F34" s="47"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="33"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="49"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
@@ -1607,20 +1624,20 @@
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="47"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="33"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="49"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -1628,20 +1645,20 @@
       <c r="C36" s="2"/>
       <c r="D36" s="13"/>
       <c r="F36" s="47"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="33"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="49"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
@@ -1649,20 +1666,20 @@
       <c r="C37" s="2"/>
       <c r="D37" s="13"/>
       <c r="F37" s="47"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="33"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="49"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
@@ -1670,20 +1687,20 @@
       <c r="C38" s="2"/>
       <c r="D38" s="13"/>
       <c r="F38" s="47"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="33"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="49"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
@@ -1691,20 +1708,20 @@
       <c r="C39" s="2"/>
       <c r="D39" s="13"/>
       <c r="F39" s="47"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="33"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="49"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
@@ -1712,20 +1729,20 @@
       <c r="C40" s="2"/>
       <c r="D40" s="13"/>
       <c r="F40" s="47"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="33"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="49"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
@@ -1733,20 +1750,20 @@
       <c r="C41" s="2"/>
       <c r="D41" s="13"/>
       <c r="F41" s="47"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="33"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="49"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
@@ -1754,20 +1771,20 @@
       <c r="C42" s="2"/>
       <c r="D42" s="13"/>
       <c r="F42" s="47"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="33"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="49"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
@@ -1775,20 +1792,20 @@
       <c r="C43" s="2"/>
       <c r="D43" s="13"/>
       <c r="F43" s="47"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="33"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="49"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
@@ -1796,20 +1813,20 @@
       <c r="C44" s="2"/>
       <c r="D44" s="13"/>
       <c r="F44" s="47"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="33"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="49"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
@@ -1817,20 +1834,20 @@
       <c r="C45" s="2"/>
       <c r="D45" s="13"/>
       <c r="F45" s="47"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="33"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="49"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
@@ -1838,20 +1855,20 @@
       <c r="C46" s="2"/>
       <c r="D46" s="13"/>
       <c r="F46" s="47"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="33"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="49"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
@@ -1859,20 +1876,20 @@
       <c r="C47" s="2"/>
       <c r="D47" s="13"/>
       <c r="F47" s="47"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="33"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="49"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
@@ -1880,20 +1897,20 @@
       <c r="C48" s="2"/>
       <c r="D48" s="13"/>
       <c r="F48" s="47"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="33"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="49"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
@@ -1901,20 +1918,20 @@
       <c r="C49" s="2"/>
       <c r="D49" s="13"/>
       <c r="F49" s="47"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="33"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="49"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
@@ -1922,20 +1939,20 @@
       <c r="C50" s="2"/>
       <c r="D50" s="13"/>
       <c r="F50" s="47"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="33"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="49"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
@@ -1943,20 +1960,20 @@
       <c r="C51" s="2"/>
       <c r="D51" s="13"/>
       <c r="F51" s="47"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="33"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="49"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
@@ -1964,20 +1981,20 @@
       <c r="C52" s="2"/>
       <c r="D52" s="13"/>
       <c r="F52" s="47"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="33"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="49"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
@@ -1985,20 +2002,20 @@
       <c r="C53" s="2"/>
       <c r="D53" s="13"/>
       <c r="F53" s="47"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="33"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="49"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
@@ -2006,20 +2023,20 @@
       <c r="C54" s="2"/>
       <c r="D54" s="13"/>
       <c r="F54" s="47"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="33"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="49"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
@@ -2027,20 +2044,20 @@
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="F55" s="47"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="33"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="49"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
@@ -2048,20 +2065,20 @@
       <c r="C56" s="13"/>
       <c r="D56" s="2"/>
       <c r="F56" s="47"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="33"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="49"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
@@ -2069,20 +2086,20 @@
       <c r="C57" s="13"/>
       <c r="D57" s="2"/>
       <c r="F57" s="47"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="33"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="49"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
@@ -2090,20 +2107,20 @@
       <c r="C58" s="13"/>
       <c r="D58" s="2"/>
       <c r="F58" s="47"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="33"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="48"/>
+      <c r="T58" s="49"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
@@ -2111,20 +2128,20 @@
       <c r="C59" s="13"/>
       <c r="D59" s="2"/>
       <c r="F59" s="47"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="33"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="49"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
@@ -2132,20 +2149,20 @@
       <c r="C60" s="13"/>
       <c r="D60" s="2"/>
       <c r="F60" s="47"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="33"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
+      <c r="S60" s="48"/>
+      <c r="T60" s="49"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
@@ -2153,20 +2170,20 @@
       <c r="C61" s="13"/>
       <c r="D61" s="2"/>
       <c r="F61" s="47"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="33"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="48"/>
+      <c r="S61" s="48"/>
+      <c r="T61" s="49"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
@@ -2174,20 +2191,20 @@
       <c r="C62" s="13"/>
       <c r="D62" s="2"/>
       <c r="F62" s="47"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="33"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="49"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
@@ -2195,20 +2212,20 @@
       <c r="C63" s="13"/>
       <c r="D63" s="2"/>
       <c r="F63" s="47"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="33"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="48"/>
+      <c r="T63" s="49"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
@@ -2216,41 +2233,41 @@
       <c r="C64" s="13"/>
       <c r="D64" s="2"/>
       <c r="F64" s="47"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="33"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="48"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="48"/>
+      <c r="T64" s="49"/>
     </row>
     <row r="65" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="3"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="51"/>
+      <c r="T65" s="52"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G66" s="1"/>
@@ -2334,7 +2351,7 @@
       <c r="A70" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="21" t="s">
@@ -2343,7 +2360,7 @@
       <c r="D70" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="52" t="s">
+      <c r="E70" s="25" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="21" t="s">
@@ -2353,7 +2370,7 @@
       <c r="H70" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I70" s="52" t="s">
+      <c r="I70" s="25" t="s">
         <v>11</v>
       </c>
       <c r="J70" s="21" t="s">
@@ -2362,7 +2379,7 @@
       <c r="K70" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L70" s="52" t="s">
+      <c r="L70" s="25" t="s">
         <v>11</v>
       </c>
       <c r="M70" s="21" t="s">
@@ -2371,7 +2388,7 @@
       <c r="O70" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="P70" s="52" t="s">
+      <c r="P70" s="25" t="s">
         <v>11</v>
       </c>
       <c r="Q70" s="21" t="s">
@@ -2380,7 +2397,7 @@
       <c r="R70" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="S70" s="52" t="s">
+      <c r="S70" s="25" t="s">
         <v>11</v>
       </c>
       <c r="T70" s="21" t="s">
@@ -2418,7 +2435,7 @@
         <v>10</v>
       </c>
       <c r="S71" s="13"/>
-      <c r="T71" s="51"/>
+      <c r="T71" s="24"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
@@ -3354,10 +3371,11 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G1:U29"/>
     <mergeCell ref="A1:F29"/>
     <mergeCell ref="F33:T65"/>
+    <mergeCell ref="G1:T29"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Aufnahmebogen_Krater.xlsx
+++ b/doc/Aufnahmebogen_Krater.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSeimn\Documents\edu\Envimaster-Geomorph\repo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19228D0A-A750-4059-A272-5035F33C6673}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215561D5-FC71-4DA3-AA38-0C149D4CD9C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C11A25ED-35C3-41CF-904F-F9C2490EB3CC}"/>
   </bookViews>
@@ -59,23 +59,21 @@
     <t>Skizze</t>
   </si>
   <si>
-    <t>Allgemeine Beschreibung des Kraters:</t>
+    <t>Anzahl 
+Schläge</t>
   </si>
   <si>
-    <t>Plot ID:
-N:
-E:
-Datum:
-Aufgenommen durch:
-Maße des Kraters
-Länge:
-Breite:
-Tiefe:
-Bemerkungen:</t>
+    <t xml:space="preserve">Allgemeine Beschreibung des Kraters:
+</t>
   </si>
   <si>
-    <t>Anzahl 
-Schläge</t>
+    <t xml:space="preserve">Plot ID: 
+N: 
+E: 
+Datum: 
+Aufgenommen durch:
+Bemerkungen:
+</t>
   </si>
 </sst>
 </file>
@@ -400,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -433,33 +431,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -514,8 +490,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,8 +833,8 @@
   </sheetPr>
   <dimension ref="A1:AE100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AE1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,31 +857,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="53"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="26"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -897,656 +894,656 @@
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="53"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="26"/>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="53"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="26"/>
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="53"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="26"/>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="53"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="26"/>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="53"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="26"/>
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="53"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="26"/>
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="53"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="26"/>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="53"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="26"/>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="53"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="26"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="53"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="26"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="53"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="26"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="53"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="26"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="53"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="26"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="53"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="26"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="53"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="26"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="53"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="26"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="53"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="26"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="53"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="26"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="53"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="26"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="53"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="26"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="53"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="26"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="53"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="26"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="53"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="26"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="53"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="26"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="53"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="26"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="53"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="26"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="53"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="26"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="53"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="26"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
@@ -1569,23 +1566,23 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="46"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="40"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
@@ -1593,21 +1590,21 @@
       <c r="C34" s="1"/>
       <c r="D34" s="8"/>
       <c r="E34" s="22"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="49"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="43"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
@@ -1623,651 +1620,651 @@
         <v>3</v>
       </c>
       <c r="E35" s="22"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="49"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="43"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="13"/>
       <c r="C36" s="2"/>
       <c r="D36" s="13"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="49"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="43"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="13"/>
       <c r="C37" s="2"/>
       <c r="D37" s="13"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="49"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="43"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="13"/>
       <c r="C38" s="2"/>
       <c r="D38" s="13"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="49"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="43"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="13"/>
       <c r="C39" s="2"/>
       <c r="D39" s="13"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="49"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="43"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="13"/>
       <c r="C40" s="2"/>
       <c r="D40" s="13"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="49"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="43"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="13"/>
       <c r="C41" s="2"/>
       <c r="D41" s="13"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="49"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="43"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="13"/>
       <c r="C42" s="2"/>
       <c r="D42" s="13"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="49"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="43"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="13"/>
       <c r="C43" s="2"/>
       <c r="D43" s="13"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="49"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="43"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+      <c r="A44" s="27"/>
       <c r="B44" s="13"/>
       <c r="C44" s="2"/>
       <c r="D44" s="13"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="49"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="43"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="13"/>
       <c r="C45" s="2"/>
       <c r="D45" s="13"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="49"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="43"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="13"/>
       <c r="C46" s="2"/>
       <c r="D46" s="13"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="48"/>
-      <c r="T46" s="49"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="43"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="13"/>
       <c r="C47" s="2"/>
       <c r="D47" s="13"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="49"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="43"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="13"/>
       <c r="C48" s="2"/>
       <c r="D48" s="13"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="49"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="43"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="A49" s="27"/>
       <c r="B49" s="13"/>
       <c r="C49" s="2"/>
       <c r="D49" s="13"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="49"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="43"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="13"/>
       <c r="C50" s="2"/>
       <c r="D50" s="13"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="48"/>
-      <c r="T50" s="49"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="43"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="13"/>
       <c r="C51" s="2"/>
       <c r="D51" s="13"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="49"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="43"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="13"/>
       <c r="C52" s="2"/>
       <c r="D52" s="13"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="48"/>
-      <c r="T52" s="49"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="43"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
+      <c r="A53" s="27"/>
       <c r="B53" s="13"/>
       <c r="C53" s="2"/>
       <c r="D53" s="13"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="49"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="43"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="13"/>
       <c r="C54" s="2"/>
       <c r="D54" s="13"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="48"/>
-      <c r="T54" s="49"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="43"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="49"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="43"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="2"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="48"/>
-      <c r="T56" s="49"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="43"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="2"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="48"/>
-      <c r="S57" s="48"/>
-      <c r="T57" s="49"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="43"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
+      <c r="A58" s="27"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="2"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="48"/>
-      <c r="S58" s="48"/>
-      <c r="T58" s="49"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="43"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="2"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="48"/>
-      <c r="N59" s="48"/>
-      <c r="O59" s="48"/>
-      <c r="P59" s="48"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="48"/>
-      <c r="S59" s="48"/>
-      <c r="T59" s="49"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="43"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="2"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="48"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="48"/>
-      <c r="S60" s="48"/>
-      <c r="T60" s="49"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="43"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="2"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="48"/>
-      <c r="P61" s="48"/>
-      <c r="Q61" s="48"/>
-      <c r="R61" s="48"/>
-      <c r="S61" s="48"/>
-      <c r="T61" s="49"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="43"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="2"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="L62" s="48"/>
-      <c r="M62" s="48"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
-      <c r="Q62" s="48"/>
-      <c r="R62" s="48"/>
-      <c r="S62" s="48"/>
-      <c r="T62" s="49"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="43"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="2"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="48"/>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="48"/>
-      <c r="R63" s="48"/>
-      <c r="S63" s="48"/>
-      <c r="T63" s="49"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="43"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
+      <c r="A64" s="27"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="2"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="48"/>
-      <c r="M64" s="48"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="48"/>
-      <c r="P64" s="48"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="48"/>
-      <c r="S64" s="48"/>
-      <c r="T64" s="49"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="43"/>
     </row>
     <row r="65" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="3"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="51"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
-      <c r="O65" s="51"/>
-      <c r="P65" s="51"/>
-      <c r="Q65" s="51"/>
-      <c r="R65" s="51"/>
-      <c r="S65" s="51"/>
-      <c r="T65" s="52"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="45"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="46"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G66" s="1"/>
@@ -2318,23 +2315,31 @@
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="1"/>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
       <c r="C69" s="8"/>
       <c r="D69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
       <c r="F69" s="8"/>
       <c r="G69" s="1"/>
       <c r="H69" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I69" s="1"/>
+      <c r="I69" s="1">
+        <v>3</v>
+      </c>
       <c r="J69" s="8"/>
       <c r="K69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L69" s="1"/>
+      <c r="L69" s="1">
+        <v>4</v>
+      </c>
       <c r="M69" s="8"/>
       <c r="O69" s="23" t="s">
         <v>0</v>
@@ -2352,7 +2357,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>3</v>
@@ -2361,7 +2366,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F70" s="21" t="s">
         <v>3</v>
@@ -2371,7 +2376,7 @@
         <v>6</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J70" s="21" t="s">
         <v>3</v>
@@ -2380,7 +2385,7 @@
         <v>6</v>
       </c>
       <c r="L70" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M70" s="21" t="s">
         <v>3</v>
@@ -2389,7 +2394,7 @@
         <v>6</v>
       </c>
       <c r="P70" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q70" s="21" t="s">
         <v>3</v>
@@ -2398,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="S70" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T70" s="21" t="s">
         <v>3</v>
